--- a/biology/Botanique/J.J.Sm/J.J.Sm..xlsx
+++ b/biology/Botanique/J.J.Sm/J.J.Sm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johannes[1] Jacobus Smith est un botaniste néerlandais, né le 29 juin 1867 à Anvers et mort le 14 janvier 1947 à Oegstgeest.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johannes Jacobus Smith est un botaniste néerlandais, né le 29 juin 1867 à Anvers et mort le 14 janvier 1947 à Oegstgeest.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">J.J. Smith part à Java en 1891 où il devient conservateur assistant au Jardin botanique de Buitenzorg, près de Batavia (aujourd’hui Bogor). Il fait plusieurs expéditions à Java, dans les Sulawesi (aujourd’hui Sulawesi), les îles Ambon et les Moluques. En 1905, il est promu assistant à l’herbier. À partir de cette date et jusqu’en 1924, il fait de nombreux voyages dans les Indes orientales néerlandaises, principalement à Java pour y récolter des végétaux, décrire et catalogue la flore de cette région. En 1910, il reçoit un titre de docteur honoris causa de l’université d'Utrecht. Il devient directeur du Jardin botanique de Buitenzorg en 1913, fonction qu’il conserve jusqu’en 1924. Il retourne alors dans les Pays-Bas et s’installe d’abord à Utrecht, puis à Oegstgeest près de Leyde. Il continue de travailler sur les orchidées presque jusqu’à sa mort en 1947.
 La description de la flore de la moitié ouest de la Nouvelle-Guinée (alors territoire néerlandais). Smith est, après Rudolf Schlechter (1872-1925), le plus important descripteur d’orchidées néo-guinéennes. Il décrit aussi de nombreux taxons notamment des familles des Ericaceae et des Euphorbiaceae.
@@ -543,7 +557,9 @@
           <t>Liste d’espèces décrites par Johannes Jacobus Smith</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aerides reversum J.J.Sm. (1912)
 Bulbophyllum borneense (Schltr.) J.J.Sm. (1912)
@@ -606,7 +622,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(nl) 1905 : ‘Orchidaceae van Ambon (Batavia)
 (nl) 1920 : Aanteekeningen over orchideeën - [S.l.] - 5 dl.
